--- a/List.xlsx
+++ b/List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Minecraft\1.19客户端\.minecraft\resourcepacks\TCTC_Cherry_Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Minecraft\1.20 Test\.minecraft\resourcepacks\TCTC_Cherry_Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5A3FA4-1750-4C7F-97F1-D3CFAA5C51CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EDBF27-3932-4CD9-BA2C-0C01342EEDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5710" yWindow="1310" windowWidth="19200" windowHeight="12250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6860" yWindow="3000" windowWidth="21590" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -230,14 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Minimalist_Style_CherryWire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原版实现红石粉改色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TCTC_Cherry_e</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -250,7 +242,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兼轻重质踏板红显和虫蚀方块标红功能</t>
+    <t>Cat_Claw_RedstoneWire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫爪红石粉（需要改色模组）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼轻重质踏板红显（有问题）和虫蚀方块标红功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -357,13 +357,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -656,27 +656,27 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="5"/>
-    <col min="3" max="3" width="8.6640625" style="4"/>
+    <col min="1" max="1" width="17.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" style="4"/>
+    <col min="3" max="3" width="8.6640625" style="3"/>
     <col min="4" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="5" width="26.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="51.9140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="34.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.9140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="E1" s="6" t="s">
         <v>53</v>
       </c>
@@ -684,317 +684,317 @@
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>404</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>27</v>
       </c>
     </row>

--- a/List.xlsx
+++ b/List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Minecraft\1.20 Test\.minecraft\resourcepacks\TCTC_Cherry_Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0EDBF27-3932-4CD9-BA2C-0C01342EEDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70908CDB-C306-44D3-9559-0806F34D085C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="3000" windowWidth="21590" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -242,15 +242,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cat_Claw_RedstoneWire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫爪红石粉（需要改色模组）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兼轻重质踏板红显（有问题）和虫蚀方块标红功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫爪元素附加包（有问题等待修正）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCTC_Cherry_meow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -656,7 +656,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -694,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>58</v>
@@ -720,7 +720,7 @@
         <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">

--- a/List.xlsx
+++ b/List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Minecraft\1.20 Test\.minecraft\resourcepacks\TCTC_Cherry_Dev\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70908CDB-C306-44D3-9559-0806F34D085C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6B3659-DDAB-47A7-9088-3F38C8D8EE0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4010" yWindow="0" windowWidth="21590" windowHeight="11900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Hendrix_Shen</t>
   </si>
@@ -230,19 +230,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TCTC_Cherry_e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Emissive 纹理附加（需要 OptiFine 或 Countinuity）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不兼容粒子改色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼轻重质踏板红显（有问题）和虫蚀方块标红功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -656,7 +644,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -694,13 +682,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -712,15 +700,6 @@
       </c>
       <c r="C3" s="3">
         <v>2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
